--- a/DATA/Google Trends/GTrends Mined Data- MASTER.xlsx
+++ b/DATA/Google Trends/GTrends Mined Data- MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjkno\Documents\My Documents\Classes - '23 Spring\Research\Paper (Side) #1\DATA\Google Trends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F0CCBB-E247-4D01-946A-24E3598A0771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAEE6D-AE90-48A2-A6C8-883AB32D98B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
